--- a/biology/Virologie/Potexvirus/Potexvirus.xlsx
+++ b/biology/Virologie/Potexvirus/Potexvirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Potexvirus[1] est un genre de virus de la famille des Alphaflexiviridae, qui  comprend 38 espèces officiellement décrites, dont le PVX (Potato virus X), le virus X de la pomme de terre, qui est l'espèce-type, et 18 espèces proposées. Ce sont des virus à ARN simple brin à polarité positive, rattachés au groupe IV de la classification Baltimore, qui infectent des plantes herbacées (phytovirus). 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Potexvirus est un genre de virus de la famille des Alphaflexiviridae, qui  comprend 38 espèces officiellement décrites, dont le PVX (Potato virus X), le virus X de la pomme de terre, qui est l'espèce-type, et 18 espèces proposées. Ce sont des virus à ARN simple brin à polarité positive, rattachés au groupe IV de la classification Baltimore, qui infectent des plantes herbacées (phytovirus). 
 Ces virus n'ont pas de vecteurs biologiques connus et la transmission se fait par inoculation mécanique. Les symptômes se manifestent sous forme de mosaïques ou d'anneaux nécrotiques.
 Les virions, en forme de bâtonnets filamenteux et flexueux, sont relativement courts, d'une longueur d'environ 470 à 580 nm.
 </t>
@@ -513,9 +525,11 @@
           <t>Liste des  espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (22 janvier 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (22 janvier 2021) :
 Actinidia virus X
 Allium virus X
 Alstroemeria virus X
